--- a/individual_case_outputs/avey/490.xlsx
+++ b/individual_case_outputs/avey/490.xlsx
@@ -647,7 +647,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>sever muscular sprain</t>
+          <t>mechanical back pain</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>vertebral fracture</t>
+          <t>spinal stenosis</t>
         </is>
       </c>
       <c r="M3" t="inlineStr"/>
@@ -805,7 +805,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>mechanical back pain</t>
+          <t>degenerative disc disease</t>
         </is>
       </c>
       <c r="M4" t="inlineStr"/>
@@ -813,7 +813,7 @@
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>mechanical back pain</t>
+          <t>spondylolisthesis</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
